--- a/time.xlsx
+++ b/time.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1439986228942871</v>
+        <v>0.1619999408721924</v>
       </c>
       <c r="C2">
-        <v>0.1339998245239258</v>
+        <v>0.140099048614502</v>
       </c>
       <c r="D2">
-        <v>3.384075403213501</v>
+        <v>32.99550485610962</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1379997730255127</v>
+        <v>0.1560776233673096</v>
       </c>
       <c r="C3">
-        <v>0.1310000419616699</v>
+        <v>0.1319961547851562</v>
       </c>
       <c r="D3">
-        <v>3.851020336151123</v>
+        <v>32.00593376159668</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,111 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1387057304382324</v>
+        <v>0.1519966125488281</v>
       </c>
       <c r="C4">
-        <v>0.1203293800354004</v>
+        <v>0.1319954395294189</v>
       </c>
       <c r="D4">
-        <v>3.538052320480347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.1419949531555176</v>
-      </c>
-      <c r="C5">
-        <v>0.1269993782043457</v>
-      </c>
-      <c r="D5">
-        <v>3.325271368026733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.1310000419616699</v>
-      </c>
-      <c r="C6">
-        <v>0.1229941844940186</v>
-      </c>
-      <c r="D6">
-        <v>3.63093113899231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.1359958648681641</v>
-      </c>
-      <c r="C7">
-        <v>0.122999906539917</v>
-      </c>
-      <c r="D7">
-        <v>3.407804727554321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.1299982070922852</v>
-      </c>
-      <c r="C8">
-        <v>0.124985933303833</v>
-      </c>
-      <c r="D8">
-        <v>3.635298728942871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.1299624443054199</v>
-      </c>
-      <c r="C9">
-        <v>0.1259946823120117</v>
-      </c>
-      <c r="D9">
-        <v>3.334594964981079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.130681037902832</v>
-      </c>
-      <c r="C10">
-        <v>0.1256012916564941</v>
-      </c>
-      <c r="D10">
-        <v>3.166006326675415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.1322593688964844</v>
-      </c>
-      <c r="C11">
-        <v>0.1267969608306885</v>
-      </c>
-      <c r="D11">
-        <v>3.277831077575684</v>
+        <v>33.40722012519836</v>
       </c>
     </row>
   </sheetData>

--- a/time.xlsx
+++ b/time.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1619999408721924</v>
+        <v>0.1398961544036865</v>
       </c>
       <c r="C2">
-        <v>0.140099048614502</v>
+        <v>0.146367073059082</v>
       </c>
       <c r="D2">
-        <v>32.99550485610962</v>
+        <v>31.68266844749451</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1560776233673096</v>
+        <v>0.1515429019927979</v>
       </c>
       <c r="C3">
-        <v>0.1319961547851562</v>
+        <v>0.1372420787811279</v>
       </c>
       <c r="D3">
-        <v>32.00593376159668</v>
+        <v>30.91474461555481</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1519966125488281</v>
+        <v>0.1444263458251953</v>
       </c>
       <c r="C4">
-        <v>0.1319954395294189</v>
+        <v>0.1323707103729248</v>
       </c>
       <c r="D4">
-        <v>33.40722012519836</v>
+        <v>31.12004089355469</v>
       </c>
     </row>
   </sheetData>

--- a/time.xlsx
+++ b/time.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1398961544036865</v>
+        <v>0.139000415802002</v>
       </c>
       <c r="C2">
-        <v>0.146367073059082</v>
+        <v>0.1369998455047607</v>
       </c>
       <c r="D2">
-        <v>31.68266844749451</v>
+        <v>32.77153730392456</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,27 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1515429019927979</v>
+        <v>0.1385793685913086</v>
       </c>
       <c r="C3">
-        <v>0.1372420787811279</v>
+        <v>0.1290004253387451</v>
       </c>
       <c r="D3">
-        <v>30.91474461555481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.1444263458251953</v>
-      </c>
-      <c r="C4">
-        <v>0.1323707103729248</v>
-      </c>
-      <c r="D4">
-        <v>31.12004089355469</v>
+        <v>33.44345951080322</v>
       </c>
     </row>
   </sheetData>

--- a/time.xlsx
+++ b/time.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.139000415802002</v>
+        <v>0.1313669681549072</v>
       </c>
       <c r="C2">
-        <v>0.1369998455047607</v>
+        <v>0.1262233257293701</v>
       </c>
       <c r="D2">
-        <v>32.77153730392456</v>
+        <v>32.72455191612244</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1385793685913086</v>
+        <v>0.133000373840332</v>
       </c>
       <c r="C3">
-        <v>0.1290004253387451</v>
+        <v>0.1339964866638184</v>
       </c>
       <c r="D3">
-        <v>33.44345951080322</v>
+        <v>32.54075884819031</v>
       </c>
     </row>
   </sheetData>

--- a/time.xlsx
+++ b/time.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1313669681549072</v>
+        <v>0.1370000839233398</v>
       </c>
       <c r="C2">
-        <v>0.1262233257293701</v>
+        <v>0.128995418548584</v>
       </c>
       <c r="D2">
-        <v>32.72455191612244</v>
+        <v>32.46444177627563</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,685 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.133000373840332</v>
+        <v>0.1350002288818359</v>
       </c>
       <c r="C3">
-        <v>0.1339964866638184</v>
+        <v>0.1329994201660156</v>
       </c>
       <c r="D3">
-        <v>32.54075884819031</v>
+        <v>32.1965959072113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1369998455047607</v>
+      </c>
+      <c r="C4">
+        <v>0.1359994411468506</v>
+      </c>
+      <c r="D4">
+        <v>32.73869895935059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.137000560760498</v>
+      </c>
+      <c r="C5">
+        <v>0.1309947967529297</v>
+      </c>
+      <c r="D5">
+        <v>32.30923390388489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.134000301361084</v>
+      </c>
+      <c r="C6">
+        <v>0.1309964656829834</v>
+      </c>
+      <c r="D6">
+        <v>32.58665537834167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.134000301361084</v>
+      </c>
+      <c r="C7">
+        <v>0.1289992332458496</v>
+      </c>
+      <c r="D7">
+        <v>32.30955719947815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1389966011047363</v>
+      </c>
+      <c r="C8">
+        <v>0.1349954605102539</v>
+      </c>
+      <c r="D8">
+        <v>32.75937795639038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.1540837287902832</v>
+      </c>
+      <c r="C9">
+        <v>0.1300065517425537</v>
+      </c>
+      <c r="D9">
+        <v>32.77848529815674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.1410000324249268</v>
+      </c>
+      <c r="C10">
+        <v>0.1289963722229004</v>
+      </c>
+      <c r="D10">
+        <v>32.45656085014343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.1430001258850098</v>
+      </c>
+      <c r="C11">
+        <v>0.1300008296966553</v>
+      </c>
+      <c r="D11">
+        <v>32.5196692943573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.140000581741333</v>
+      </c>
+      <c r="C12">
+        <v>0.1289966106414795</v>
+      </c>
+      <c r="D12">
+        <v>33.02829504013062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1389997005462646</v>
+      </c>
+      <c r="C13">
+        <v>0.1299998760223389</v>
+      </c>
+      <c r="D13">
+        <v>31.83583879470825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.1380009651184082</v>
+      </c>
+      <c r="C14">
+        <v>0.1279957294464111</v>
+      </c>
+      <c r="D14">
+        <v>32.22900724411011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.1399993896484375</v>
+      </c>
+      <c r="C15">
+        <v>0.129002571105957</v>
+      </c>
+      <c r="D15">
+        <v>32.33729910850525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.1459996700286865</v>
+      </c>
+      <c r="C16">
+        <v>0.1299953460693359</v>
+      </c>
+      <c r="D16">
+        <v>32.79831290245056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.1510002613067627</v>
+      </c>
+      <c r="C17">
+        <v>0.128000020980835</v>
+      </c>
+      <c r="D17">
+        <v>32.66335940361023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1440000534057617</v>
+      </c>
+      <c r="C18">
+        <v>0.1299996376037598</v>
+      </c>
+      <c r="D18">
+        <v>32.65988183021545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.139000415802002</v>
+      </c>
+      <c r="C19">
+        <v>0.1353957653045654</v>
+      </c>
+      <c r="D19">
+        <v>32.68783092498779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.1390006542205811</v>
+      </c>
+      <c r="C20">
+        <v>0.129000186920166</v>
+      </c>
+      <c r="D20">
+        <v>32.32480883598328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1370000839233398</v>
+      </c>
+      <c r="C21">
+        <v>0.1303014755249023</v>
+      </c>
+      <c r="D21">
+        <v>32.85316801071167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.1440017223358154</v>
+      </c>
+      <c r="C22">
+        <v>0.1290037631988525</v>
+      </c>
+      <c r="D22">
+        <v>32.18152546882629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.1340000629425049</v>
+      </c>
+      <c r="C23">
+        <v>0.130000114440918</v>
+      </c>
+      <c r="D23">
+        <v>32.06613492965698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.1339995861053467</v>
+      </c>
+      <c r="C24">
+        <v>0.1339988708496094</v>
+      </c>
+      <c r="D24">
+        <v>32.53539800643921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.1380000114440918</v>
+      </c>
+      <c r="C25">
+        <v>0.1319966316223145</v>
+      </c>
+      <c r="D25">
+        <v>31.88339710235596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.1370809078216553</v>
+      </c>
+      <c r="C26">
+        <v>0.130000114440918</v>
+      </c>
+      <c r="D26">
+        <v>32.48034954071045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.1390001773834229</v>
+      </c>
+      <c r="C27">
+        <v>0.1310007572174072</v>
+      </c>
+      <c r="D27">
+        <v>32.51467442512512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.1379997730255127</v>
+      </c>
+      <c r="C28">
+        <v>0.132000207901001</v>
+      </c>
+      <c r="D28">
+        <v>32.641921043396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.1310000419616699</v>
+      </c>
+      <c r="C29">
+        <v>0.1329998970031738</v>
+      </c>
+      <c r="D29">
+        <v>32.17523431777954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.1339995861053467</v>
+      </c>
+      <c r="C30">
+        <v>0.1289963722229004</v>
+      </c>
+      <c r="D30">
+        <v>33.03943634033203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.1360001564025879</v>
+      </c>
+      <c r="C31">
+        <v>0.1300008296966553</v>
+      </c>
+      <c r="D31">
+        <v>32.57819032669067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.1370003223419189</v>
+      </c>
+      <c r="C32">
+        <v>0.1339960098266602</v>
+      </c>
+      <c r="D32">
+        <v>32.13788914680481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.1349999904632568</v>
+      </c>
+      <c r="C33">
+        <v>0.1310045719146729</v>
+      </c>
+      <c r="D33">
+        <v>32.13108682632446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.1319999694824219</v>
+      </c>
+      <c r="C34">
+        <v>0.1320004463195801</v>
+      </c>
+      <c r="D34">
+        <v>33.1205689907074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.1340010166168213</v>
+      </c>
+      <c r="C35">
+        <v>0.131000280380249</v>
+      </c>
+      <c r="D35">
+        <v>32.13788056373596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.1350009441375732</v>
+      </c>
+      <c r="C36">
+        <v>0.1299996376037598</v>
+      </c>
+      <c r="D36">
+        <v>32.47328233718872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.1340005397796631</v>
+      </c>
+      <c r="C37">
+        <v>0.1270036697387695</v>
+      </c>
+      <c r="D37">
+        <v>32.88335657119751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.1340000629425049</v>
+      </c>
+      <c r="C38">
+        <v>0.1310005187988281</v>
+      </c>
+      <c r="D38">
+        <v>32.00480484962463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.1360001564025879</v>
+      </c>
+      <c r="C39">
+        <v>0.1289987564086914</v>
+      </c>
+      <c r="D39">
+        <v>32.72559809684753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.1380000114440918</v>
+      </c>
+      <c r="C40">
+        <v>0.133009672164917</v>
+      </c>
+      <c r="D40">
+        <v>32.00979495048523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.1379954814910889</v>
+      </c>
+      <c r="C41">
+        <v>0.1310005187988281</v>
+      </c>
+      <c r="D41">
+        <v>31.92580533027649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.1350002288818359</v>
+      </c>
+      <c r="C42">
+        <v>0.1319961547851562</v>
+      </c>
+      <c r="D42">
+        <v>32.21494197845459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.1330001354217529</v>
+      </c>
+      <c r="C43">
+        <v>0.131000280380249</v>
+      </c>
+      <c r="D43">
+        <v>32.42974495887756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.1360001564025879</v>
+      </c>
+      <c r="C44">
+        <v>0.1320037841796875</v>
+      </c>
+      <c r="D44">
+        <v>33.27447009086609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.1359999179840088</v>
+      </c>
+      <c r="C45">
+        <v>0.1290020942687988</v>
+      </c>
+      <c r="D45">
+        <v>32.43274521827698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.1348741054534912</v>
+      </c>
+      <c r="C46">
+        <v>0.1300003528594971</v>
+      </c>
+      <c r="D46">
+        <v>32.42579984664917</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.1329998970031738</v>
+      </c>
+      <c r="C47">
+        <v>0.1289958953857422</v>
+      </c>
+      <c r="D47">
+        <v>32.3322057723999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.1369972229003906</v>
+      </c>
+      <c r="C48">
+        <v>0.1259987354278564</v>
+      </c>
+      <c r="D48">
+        <v>32.28563475608826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.1329996585845947</v>
+      </c>
+      <c r="C49">
+        <v>0.1280004978179932</v>
+      </c>
+      <c r="D49">
+        <v>32.81821942329407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.1340000629425049</v>
+      </c>
+      <c r="C50">
+        <v>0.1309995651245117</v>
+      </c>
+      <c r="D50">
+        <v>32.08810520172119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.1339969635009766</v>
+      </c>
+      <c r="C51">
+        <v>0.1310586929321289</v>
+      </c>
+      <c r="D51">
+        <v>32.80616784095764</v>
       </c>
     </row>
   </sheetData>
